--- a/templates/export/catch-certificate-report.xlsx
+++ b/templates/export/catch-certificate-report.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,18 +22,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="H9")</t>
+          <t xml:space="preserve">jx:area(lastCell="S11")</t>
         </r>
       </text>
     </comment>
@@ -41,23 +43,39 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="H9" multisheet="sheetNames")</t>
+          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="S11" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="H9")</t>
+          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="S11")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="position.catches" var="catch" lastCell="S11")</t>
         </r>
       </text>
     </comment>
@@ -66,89 +84,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ${device.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Отчет:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертификат за улов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Риболовен Кораб:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ${device.deviceName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Група:</t>
   </si>
   <si>
     <t xml:space="preserve">${device.groupName}</t>
   </si>
   <si>
-    <t xml:space="preserve">Period:</t>
+    <t xml:space="preserve">Период:</t>
   </si>
   <si>
     <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.valid}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", position.fixTime, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${coordinateFormatter.decimalToDMS(position.latitude, "latitude")}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${coordinateFormatter.decimalToDMS(position.longitude, "longitude")}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.altitude}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", position.speed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", position.speed * 1.15078) : "".format("%.1f kn", position.speed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.fishes.toString()}</t>
+    <t xml:space="preserve">Номер на документ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер на риболовен трип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тръгване</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разтоварване</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Собственик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Капитан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разрешително за риболов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Специално разрешително за риболов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценено живо тегло (кг)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата на улов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зона на улов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пристанище</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Държава</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Име</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидност</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Географска ширина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Географска дължина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.uniqueNumber}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGR-TRP-${position.tripNumber}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.departurePortName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.departurePortCountry}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.landingPortName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.landingPortCountry}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.ownerName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.ownerPhone}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.captainName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.fishingPermitNumber}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", position.fishingPermitValidTo, locale, timezone)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${position.fishingCertificateNumber}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", position.fishingCertificateValidTo, locale, timezone)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${catch.speciesWeightKilograms}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${dateTool.format("DD.MM.YYYY", catch.endFishingOperationDateTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${coordinateFormatter.decimalToDMS(catch.startFishingOperationLatitude, "latitude")}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${coordinateFormatter.decimalToDMS(catch.startFishingOperationLongitude, "longitude")}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${coordinateFormatter.decimalToDMS(catch.endFishingOperationLatitude, "latitude")}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${coordinateFormatter.decimalToDMS(catch.endFishingOperationLongitude, "longitude")}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0&quot; m&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,13 +266,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -203,10 +281,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,6 +308,20 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -239,18 +330,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +355,20 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -273,10 +377,75 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -304,11 +473,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,12 +486,12 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -333,60 +502,112 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -415,16 +636,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -472,10 +693,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4018680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -485,7 +706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9837720" cy="9524160"/>
+          <a:ext cx="9843840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,10 +738,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4018680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -530,7 +751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9837720" cy="9524160"/>
+          <a:ext cx="9843840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -562,10 +783,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4018680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -575,7 +796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9837720" cy="9524160"/>
+          <a:ext cx="9843840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -607,10 +828,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4019040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -620,7 +841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9838080" cy="9524520"/>
+          <a:ext cx="9844200" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,10 +873,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4019040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,7 +886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9838080" cy="9524520"/>
+          <a:ext cx="9844200" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,10 +918,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4019040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,7 +931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9838080" cy="9524520"/>
+          <a:ext cx="9844200" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,267 +958,120 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
-  <a:themeElements>
-    <a:clrScheme name="Стандартная">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472c4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Стандартная">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="61.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="73.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="14" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1006,50 +1080,207 @@
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="19" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14" t="s">
+    <row r="9" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2"/>
+    <row r="10" s="14" customFormat="true" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="31" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:S8"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/templates/export/catch-certificate-report.xlsx
+++ b/templates/export/catch-certificate-report.xlsx
@@ -35,7 +35,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="S11")</t>
+          <t xml:space="preserve">jx:area(lastCell="T11")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="S11" multisheet="sheetNames")</t>
+          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="T11" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
@@ -61,8 +61,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="S11")</t>
+          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="T11")</t>
         </r>
       </text>
     </comment>
@@ -74,8 +75,39 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="position.catches" var="catch" lastCell="S11")</t>
+          <t xml:space="preserve">jx:each(items="position.catches" var="catch" lastCell="T11")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    jx:if(condition="catch.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF333333"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">speciesCode == </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'TUR'" lastCell="T11" )
+    /jx:if
+/jx:each</t>
         </r>
       </text>
     </comment>
@@ -84,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">Отчет:</t>
   </si>
@@ -137,6 +169,9 @@
     <t xml:space="preserve">Оценено живо тегло (кг)</t>
   </si>
   <si>
+    <t xml:space="preserve">Код на улова</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дата на улов</t>
   </si>
   <si>
@@ -207,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">${catch.speciesWeightKilograms}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${catch.speciesCode}</t>
   </si>
   <si>
     <t xml:space="preserve">${dateTool.format("DD.MM.YYYY", catch.endFishingOperationDateTime, locale, timezone)}</t>
@@ -233,7 +271,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -284,6 +322,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -313,6 +352,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -320,6 +360,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -330,16 +371,22 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -420,10 +467,8 @@
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -433,10 +478,8 @@
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -477,7 +520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,7 +621,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,15 +633,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,7 +641,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,9 +729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:colOff>1268280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -706,7 +741,97 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9843840" cy="9523800"/>
+          <a:ext cx="9841320" cy="9523440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9841320" cy="9523440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9841320" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,103 +870,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9843840" cy="9523800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9843840" cy="9523800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1269000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9844200" cy="9524160"/>
+          <a:ext cx="9841680" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,9 +909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:colOff>1268640</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -886,7 +921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9844200" cy="9524160"/>
+          <a:ext cx="9841680" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -919,9 +954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1269000</xdr:colOff>
+      <xdr:colOff>1268640</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -931,7 +966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9844200" cy="9524160"/>
+          <a:ext cx="9841680" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,31 +998,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,66 +1144,68 @@
       <c r="P8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="0"/>
+      <c r="T8" s="13"/>
       <c r="U8" s="0"/>
-      <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
     </row>
     <row r="9" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="M9" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="18" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="0"/>
+      <c r="T9" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="U9" s="0"/>
-      <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
     </row>
     <row r="10" s="14" customFormat="true" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
@@ -1186,89 +1223,91 @@
       <c r="M10" s="21"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="0"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="0"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
     </row>
-    <row r="11" s="31" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="29" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="K11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="L11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="M11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="N11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="O11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="P11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="Q11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="30" t="s">
+      <c r="R11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="0"/>
+      <c r="S11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="U11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:D8"/>
@@ -1279,7 +1318,8 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:T8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>

--- a/templates/export/catch-certificate-report.xlsx
+++ b/templates/export/catch-certificate-report.xlsx
@@ -63,7 +63,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="T11")</t>
+          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="T11")
+    jx:each(items="position.catches" var="catch" lastCell="T11")
+        jx:if(condition="catch.speciesCode == 'TUR'" lastCell="T11" )
+        /jx:if
+    /jx:each
+ /jx:each</t>
         </r>
       </text>
     </comment>
@@ -86,6 +91,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">    jx:if(condition="catch.</t>
         </r>
@@ -95,6 +101,7 @@
             <color rgb="FF333333"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">speciesCode == </t>
         </r>
@@ -104,6 +111,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">'TUR'" lastCell="T11" )
     /jx:if
@@ -271,7 +279,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,18 +383,6 @@
       <name val="Courier New"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -729,9 +725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1268280</xdr:colOff>
+      <xdr:colOff>1267920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -741,7 +737,97 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9841320" cy="9523440"/>
+          <a:ext cx="9840600" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1267920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9840600" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1267920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9840600" cy="9523080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -780,103 +866,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9841320" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1268280</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9841320" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9841680" cy="9523800"/>
+          <a:ext cx="9840960" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,9 +905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:colOff>1268280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -921,7 +917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9841680" cy="9523800"/>
+          <a:ext cx="9840960" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,9 +950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1268640</xdr:colOff>
+      <xdr:colOff>1268280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -966,7 +962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9841680" cy="9523800"/>
+          <a:ext cx="9840960" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,18 +996,18 @@
   </sheetPr>
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.2"/>
